--- a/CES3/A/v1/data/CES3Overview_a_v1_06122024.xlsx
+++ b/CES3/A/v1/data/CES3Overview_a_v1_06122024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tijslangeveld/Prodocs/RVO/Projectonderdelen/MIEK/CES3 Analyse/CES_Sankey_2024_annotations_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB1ABDC-69E4-B340-A47A-A745D3AFE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726F86B-1EFB-A946-9CDE-F8392DA2F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1180" windowWidth="40820" windowHeight="25400" activeTab="3" xr2:uid="{00875DA8-E6E4-D043-A8C0-752E62886C90}"/>
+    <workbookView xWindow="300" yWindow="1180" windowWidth="40820" windowHeight="25400" activeTab="3" xr2:uid="{00875DA8-E6E4-D043-A8C0-752E62886C90}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="12" r:id="rId1"/>
@@ -2070,9 +2070,6 @@
     <t>Rode arcering: uitgangspunt is (gedeeltelijk) gebaseerd op aanname, schatting of berekening</t>
   </si>
   <si>
-    <t>Overview Cluster Energie Strategieën 3.0</t>
-  </si>
-  <si>
     <t>&lt;aanname&gt;&lt;strong&gt;[Zeeland]&lt;/strong&gt; Uit het PBL rapport &lt;a href="https://www.pbl.nl/publicaties/reflectie-op-cluster-energiestrategieen-2024-ces-30" target="_blank" &gt;Reflectie op Cluster Energiestrategieën 2024 (CES 3.0)&lt;/a&gt; is een totaalvraag naar aardgas van 157 PJ overgenomen (pagina 35, figuur 3.12). Dit volume is inclusief het aardgasverbruik van elektriciteitscentrales. Op basis van de elektriciteitsbalans in figuur 2.6 op pagina 24 van de CES is een inschatting gemaakt van het aardgasverbruik van gasgestookte elektriciteitscentrales (22 PJ aardgas, gebaseerd op aangenomen conversie-efficientie van 59%). Dit volume is in mindering gebracht op de totaalvraag om tot een inschatting van de netto vraag naar aardgas voor industriele toepassingen te komen (157 - 22 = 135 PJ aardgas).&lt;br&gt;&lt;br&gt; Vervolgens is het totaalvolume aardgasverbruik voor industriele toepassingen verder uitgesplitst naar waterstofproductie en andere industriele toepassingen op basis van een aantal aannames. De CES geeft geen informatie over de bronnen waaruit grijze waterstof wordt geproduceerd. Aangenomen is dat 70% van de waterstofvraag in 2021 met waterstofproductie uit aardgas wordt voorzien (Zie (12) voor additionele toelichting). Dit percentage leidt in combinatie met een aantal andere aannames tot een goede fit op ordegrootte op de gerapporteerde CO2-emissies (zie (59) voor nadere toelichting). Het volume aardgas wat wordt aangewend voor overige industriele processen (directe verbranding) is vervolgens berekend door het aangenomen volume aardgas voor waterstofproductie op het het in de CES opgegeven totale aardgasverbruik in mindering te brengen.&lt;/aanname&gt;</t>
   </si>
   <si>
@@ -2098,6 +2095,9 @@
   </si>
   <si>
     <t>versie 09-12-2024</t>
+  </si>
+  <si>
+    <t>Overview Cluster Energie Strategieën (CES) 3.0</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2561,7 @@
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2740,10 +2740,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{8F0E99C6-35AB-914C-87BE-9E2256E845AF}"/>
@@ -39878,7 +39875,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39982,7 +39979,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -40126,7 +40123,7 @@
         <v>403</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -40397,8 +40394,8 @@
   </sheetPr>
   <dimension ref="A2:R416"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B5:B13"/>
+    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40463,7 +40460,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -40480,7 +40477,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -40497,7 +40494,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -40514,7 +40511,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -40533,7 +40530,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -45549,7 +45546,7 @@
   </sheetPr>
   <dimension ref="A2:R419"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A197" zoomScale="121" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -45617,7 +45614,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -45634,7 +45631,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -45651,7 +45648,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -45668,7 +45665,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -45682,7 +45679,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -47565,10 +47562,10 @@
         <v>2.0657627118644086</v>
       </c>
       <c r="H168" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="I168" s="31" t="s">
         <v>559</v>
-      </c>
-      <c r="I168" s="31" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="169" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -52989,7 +52986,7 @@
   </sheetPr>
   <dimension ref="A2:R356"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A200" zoomScale="116" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -53055,12 +53052,12 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5">
         <v>0.7</v>
       </c>
       <c r="E5" t="s">
@@ -53070,12 +53067,12 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6">
         <v>0.65</v>
       </c>
       <c r="E6" t="s">
@@ -53085,12 +53082,12 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="23">
         <v>0.65</v>
       </c>
       <c r="E7" t="s">
@@ -53100,12 +53097,12 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8">
         <v>0.65</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -53114,12 +53111,12 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="128">
+      <c r="D9" s="117">
         <v>0.80915435965817184</v>
       </c>
       <c r="E9" t="s">
@@ -53133,7 +53130,7 @@
       <c r="C10" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="23">
         <v>0.12</v>
       </c>
       <c r="E10"/>
@@ -53145,7 +53142,7 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11">
         <v>56.4</v>
       </c>
       <c r="E11" t="s">
@@ -53159,7 +53156,7 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12">
         <v>61.8</v>
       </c>
       <c r="E12" t="s">
@@ -53173,7 +53170,7 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13">
         <v>64.599999999999994</v>
       </c>
       <c r="E13" t="s">
@@ -53188,7 +53185,7 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="126">
         <v>89.9</v>
       </c>
       <c r="E14" t="s">
@@ -57631,8 +57628,8 @@
   </sheetPr>
   <dimension ref="A2:R365"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+    <sheetView zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57697,7 +57694,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -59533,7 +59530,7 @@
         <v>340</v>
       </c>
       <c r="I147" s="92" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
